--- a/management/Final Project Rubric.xlsx
+++ b/management/Final Project Rubric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Wayne 2018-19\CSC 4992\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A49BFF-BC6D-40FC-A7F6-8B3D88C676A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A79C20-40F1-4891-95AF-4BCFC67DA634}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="4860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
   <si>
     <t>Earned</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Class name</t>
   </si>
   <si>
-    <t>Superclass name</t>
-  </si>
-  <si>
     <t>Machine description (screenshot)</t>
   </si>
   <si>
@@ -202,6 +199,21 @@
   </si>
   <si>
     <t>00-1E-64-ED-77-B8</t>
+  </si>
+  <si>
+    <t>ImageButton</t>
+  </si>
+  <si>
+    <t>testRecursion()</t>
+  </si>
+  <si>
+    <t>directoryParser.py: functions to read and write scores to CSV files</t>
+  </si>
+  <si>
+    <t>Card, CardDeck, ImageButton, Score</t>
+  </si>
+  <si>
+    <t>menu.py: highScoreMenu(). Checks if username input is &gt; 10 characters</t>
   </si>
 </sst>
 </file>
@@ -728,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C40D522-ECA1-FF4D-B661-39278A20B6C5}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,12 +757,12 @@
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="F1" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
@@ -763,19 +775,19 @@
       <c r="A3" s="1"/>
       <c r="B3" s="16"/>
       <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -783,21 +795,11 @@
       <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -805,19 +807,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="G5" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,22 +828,22 @@
         <v>25</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="G6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="H6" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -850,22 +852,22 @@
         <v>26</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -902,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -917,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -932,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -947,7 +949,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -962,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -977,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1023,19 +1025,19 @@
         <v>8</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1050,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>28</v>
@@ -1077,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>29</v>
@@ -1104,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>30</v>
@@ -1131,11 +1133,9 @@
         <v>8</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>31</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F22" s="18"/>
       <c r="G22" s="18" t="s">
         <v>31</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>31</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>32</v>
@@ -1185,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>33</v>
@@ -1197,7 +1197,7 @@
         <v>33</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>31</v>
@@ -1224,7 +1224,7 @@
         <v>31</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1239,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1266,19 +1266,19 @@
         <v>8</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="27">
         <f>SUM(C10:C27)</f>
@@ -1332,7 +1332,7 @@
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -1353,7 +1353,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7">
@@ -1366,7 +1366,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7">
@@ -1379,14 +1379,14 @@
         <v>21</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7">
         <v>0.2</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7">

--- a/management/Final Project Rubric.xlsx
+++ b/management/Final Project Rubric.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Wayne 2018-19\CSC 4992\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSC4992Project\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A79C20-40F1-4891-95AF-4BCFC67DA634}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE68B44-F364-47D3-B198-61DED43F996C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="4860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="65">
   <si>
     <t>Earned</t>
   </si>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>menu.py: highScoreMenu(). Checks if username input is &gt; 10 characters</t>
+  </si>
+  <si>
+    <t>button, card, cardDeck, checkbox, constant, directoryParser, inputBox, main, menu, pygameEnvironment, score, textPrinter</t>
+  </si>
+  <si>
+    <t>loadCardImages, compareFrontImage, showCard, loadCards, checkAllFaceUp, retrieveCardImages, getCSVDirectory, openCSV, sortCSV, getTop10Scores, mainMenu, singlePlayerMenu, multiPlayerMenu, highScoreMenu, highScoreDisplayMenu</t>
+  </si>
+  <si>
+    <t>List, CardDeck.py: store a bunch of cards into a list.</t>
+  </si>
+  <si>
+    <t>For loop, CardDeck.py: set up rows of cards; If statements, CardDeck.py: check if cards match</t>
   </si>
 </sst>
 </file>
@@ -350,7 +362,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -422,6 +434,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -738,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C40D522-ECA1-FF4D-B661-39278A20B6C5}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +1000,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="26"/>
     </row>
-    <row r="17" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="37.5" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
@@ -1040,7 +1053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>21</v>
       </c>
@@ -1064,10 +1077,11 @@
         <v>28</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
@@ -1091,10 +1105,10 @@
         <v>29</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
@@ -1118,10 +1132,10 @@
         <v>30</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
@@ -1146,7 +1160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
@@ -1170,10 +1184,10 @@
         <v>32</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>21</v>
       </c>
@@ -1200,7 +1214,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -1227,7 +1241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>21</v>
       </c>
@@ -1254,7 +1268,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>21</v>
       </c>
@@ -1281,11 +1295,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="23"/>
       <c r="D28" s="26"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>40</v>
       </c>

--- a/management/Final Project Rubric.xlsx
+++ b/management/Final Project Rubric.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSC4992Project\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE68B44-F364-47D3-B198-61DED43F996C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1082BB-A9BB-4619-B7EE-EFDA58BCD0F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="4860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="4860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group rubrik" sheetId="3" r:id="rId1"/>
-    <sheet name="Individual rubrik" sheetId="4" r:id="rId2"/>
+    <sheet name="Individual rubrik (4)" sheetId="7" r:id="rId2"/>
+    <sheet name="Individual rubrik (3)" sheetId="6" r:id="rId3"/>
+    <sheet name="Individual rubrik (2)" sheetId="5" r:id="rId4"/>
+    <sheet name="Individual rubrik" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="67">
   <si>
     <t>Earned</t>
   </si>
@@ -226,6 +229,12 @@
   </si>
   <si>
     <t>For loop, CardDeck.py: set up rows of cards; If statements, CardDeck.py: check if cards match</t>
+  </si>
+  <si>
+    <t>Student: Kevin Zhang</t>
+  </si>
+  <si>
+    <t>Set up pygame infrastructure (game loops, game display). Coded main single player gameplay. Saved and read scores from multiple different csv files based on different settings.</t>
   </si>
 </sst>
 </file>
@@ -428,13 +437,13 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -753,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C40D522-ECA1-FF4D-B661-39278A20B6C5}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -769,16 +778,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
@@ -1079,7 +1088,7 @@
       <c r="I19" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="31"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -1326,6 +1335,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0755B4-2AC8-4691-A690-8656405603A6}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" style="2"/>
+    <col min="5" max="5" width="69.28515625" style="2" customWidth="1"/>
+    <col min="6" max="9" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14">
+        <f>SUM(C3:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <f>SUM(D3:D7)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40E83DE-F0AE-4BE2-8626-A90FC296FE5D}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" style="2"/>
+    <col min="5" max="5" width="69.28515625" style="2" customWidth="1"/>
+    <col min="6" max="9" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14">
+        <f>SUM(C3:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <f>SUM(D3:D7)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE538CBB-882A-46F4-97EB-96C43E708189}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" style="2"/>
+    <col min="5" max="5" width="69.28515625" style="2" customWidth="1"/>
+    <col min="6" max="9" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1"/>
+      <c r="B1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14">
+        <f>SUM(C3:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <f>SUM(D3:D7)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78C414E-0631-754C-9D21-42920DF019FE}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -1345,12 +1828,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>

--- a/management/Final Project Rubric.xlsx
+++ b/management/Final Project Rubric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSC4992Project\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1082BB-A9BB-4619-B7EE-EFDA58BCD0F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4C7CEC-801F-4801-84BB-4E2B37EC23E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="4860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="4860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group rubrik" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="69">
   <si>
     <t>Earned</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Student  _________________________</t>
   </si>
   <si>
-    <t>completed? Yes or not</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name </t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>00-1E-64-ED-77-B8</t>
   </si>
   <si>
-    <t>ImageButton</t>
-  </si>
-  <si>
     <t>testRecursion()</t>
   </si>
   <si>
@@ -235,6 +229,18 @@
   </si>
   <si>
     <t>Set up pygame infrastructure (game loops, game display). Coded main single player gameplay. Saved and read scores from multiple different csv files based on different settings.</t>
+  </si>
+  <si>
+    <t>screenshots in pdf file</t>
+  </si>
+  <si>
+    <t>ImageButton, MultiplayerScore</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>completed (submitted online)</t>
   </si>
 </sst>
 </file>
@@ -762,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C40D522-ECA1-FF4D-B661-39278A20B6C5}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,12 +785,12 @@
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
       <c r="F1" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
@@ -797,19 +803,19 @@
       <c r="A3" s="1"/>
       <c r="B3" s="16"/>
       <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -829,19 +835,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="G5" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -850,22 +856,22 @@
         <v>25</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="G6" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="H6" s="21" t="s">
         <v>47</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -874,22 +880,22 @@
         <v>26</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>55</v>
-      </c>
       <c r="H7" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -926,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -941,7 +947,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -956,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -971,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -986,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1001,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1059,7 +1065,7 @@
         <v>34</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1086,7 +1092,7 @@
         <v>28</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J19" s="29"/>
     </row>
@@ -1114,7 +1120,7 @@
         <v>29</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1141,7 +1147,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1166,7 +1172,7 @@
         <v>31</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1193,7 +1199,7 @@
         <v>32</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1220,7 +1226,7 @@
         <v>33</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1247,7 +1253,7 @@
         <v>31</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1262,7 +1268,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>39</v>
@@ -1289,7 +1295,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>39</v>
@@ -1338,7 +1344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0755B4-2AC8-4691-A690-8656405603A6}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1355,7 +1361,7 @@
     <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -1409,7 +1415,7 @@
         <v>0.2</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">

--- a/management/Final Project Rubric.xlsx
+++ b/management/Final Project Rubric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSC4992Project\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4C7CEC-801F-4801-84BB-4E2B37EC23E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADCF32B-226C-4BFC-93F7-5D79C2E17D31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="4860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C40D522-ECA1-FF4D-B661-39278A20B6C5}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/management/Final Project Rubric.xlsx
+++ b/management/Final Project Rubric.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSC4992Project\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FAE0A5-0E66-489A-A3B0-EF3C62D232CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19035" windowHeight="13605" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group rubrik" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,13 @@
     <sheet name="Individual rubrik (2)" sheetId="4" r:id="rId4"/>
     <sheet name="Individual rubrik (1)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="104">
   <si>
     <t>Group: Bela Memoro</t>
   </si>
@@ -150,18 +156,12 @@
     <t>Machine description (screenshot)</t>
   </si>
   <si>
-    <t>screenshots in pdf file</t>
-  </si>
-  <si>
     <t>Flow Control Constructs</t>
   </si>
   <si>
     <t>in “menu.py”: if-else statements and for-loops to control how much text is displayed on the screen at once and where the text is displayed for “instructionsPage()” and “creditsPage()”</t>
   </si>
   <si>
-    <t>Control flow type, location, and purpose</t>
-  </si>
-  <si>
     <t>For loop, CardDeck.py: set up rows of cards; If statements, CardDeck.py: check if cards match</t>
   </si>
   <si>
@@ -171,9 +171,6 @@
     <t>in “menu.py”: “readTextfile()” creates and returns a list of strings; “creditsPage()” and “instructionsPage()” traverses a list of strings</t>
   </si>
   <si>
-    <t>Sequence type, location and purpose</t>
-  </si>
-  <si>
     <t>List, CardDeck.py: store a bunch of cards into a list.</t>
   </si>
   <si>
@@ -183,19 +180,10 @@
     <t>in “menu.py”: “optionMenu()”, “readTextfile()”, “instructionsPage()”, “creditsPage()”</t>
   </si>
   <si>
-    <t>Function name</t>
-  </si>
-  <si>
-    <t>loadCardImages, compareFrontImage, showCard, loadCards, checkAllFaceUp, retrieveCardImages, getCSVDirectory, openCSV, sortCSV, getTop10Scores, mainMenu, singlePlayerMenu, multiPlayerMenu, highScoreMenu, highScoreDisplayMenu</t>
-  </si>
-  <si>
     <t>Read or write files</t>
   </si>
   <si>
     <t>in “menu.py”: “readTextfile()” reads a file (line-by-line), to strip away the newline characters from the end, and return the file’s contents as a list</t>
-  </si>
-  <si>
-    <t>Location and purpose</t>
   </si>
   <si>
     <t>directoryParser.py: functions to read and write scores to CSV files</t>
@@ -225,9 +213,6 @@
     </r>
   </si>
   <si>
-    <t>Module name</t>
-  </si>
-  <si>
     <t>button, card, cardDeck, checkbox, constant, directoryParser, inputBox, main, menu, pygameEnvironment, score, textPrinter</t>
   </si>
   <si>
@@ -237,12 +222,6 @@
     <t>in “/management/somali/book.py”: Book</t>
   </si>
   <si>
-    <t>Class name</t>
-  </si>
-  <si>
-    <t>Card, CardDeck, ImageButton, Score</t>
-  </si>
-  <si>
     <t>Exceptions</t>
   </si>
   <si>
@@ -255,15 +234,9 @@
     <t>Inheritance</t>
   </si>
   <si>
-    <t>ImageButton, MultiplayerScore</t>
-  </si>
-  <si>
     <t>Recursion</t>
   </si>
   <si>
-    <t>testRecursion()</t>
-  </si>
-  <si>
     <t>Team project grade</t>
   </si>
   <si>
@@ -288,12 +261,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Student  _________________________</t>
-  </si>
-  <si>
-    <t>Describe the advance feature you added to the project</t>
-  </si>
-  <si>
     <t>Student: Somali Bayi</t>
   </si>
   <si>
@@ -327,9 +294,6 @@
     <t xml:space="preserve"> Coded the multiplayer portion gameplay menu 2. Set up music to playthroughout each page</t>
   </si>
   <si>
-    <t>Ibrahim</t>
-  </si>
-  <si>
     <t>fv9349</t>
   </si>
   <si>
@@ -346,12 +310,66 @@
   </si>
   <si>
     <t>management/folder/listExample.py</t>
+  </si>
+  <si>
+    <t>Ibrahim Hakim</t>
+  </si>
+  <si>
+    <t>ibm16</t>
+  </si>
+  <si>
+    <t>MacOS</t>
+  </si>
+  <si>
+    <t>ac:bc:32:b9:9f:a7</t>
+  </si>
+  <si>
+    <t>in "ibrahim.py": line 61, if-else statement used for user to choose option to delete from List, show dictionary, read/write file or exit game.</t>
+  </si>
+  <si>
+    <t>in "ibrahim.py": line 53, list is used to store memory related words and delete optionally, line 7, dictionaries used  to display people, and reveal their secret identities(key)</t>
+  </si>
+  <si>
+    <t>in "ibrahim.py": line 6,  function called "dictionary()" to store dictionary and ask user if they want to reveal secret identity(key), line 26 "read()" for read/write files</t>
+  </si>
+  <si>
+    <t>in "ibrahim.py": line 27 which opens, reads, then closes file. Then I give user option to enter a new string into the file and then it displays onto the file in terminal.</t>
+  </si>
+  <si>
+    <t>in "menu.py": statistics is the name of the module, I also imported textPrinter into the statistics.py file</t>
+  </si>
+  <si>
+    <t>Class Name: Statistics in "statistics.py", also WrongInputError class in "ibrahim.py"</t>
+  </si>
+  <si>
+    <t>Line 72, specific Exception if user does not choose the following 'if else' letter options from line 61-69. Thus displaying a custom exception type</t>
+  </si>
+  <si>
+    <t>Statistics (games played, num matched, num clicked)</t>
+  </si>
+  <si>
+    <t>Student  Ibrahim Hakim</t>
+  </si>
+  <si>
+    <t>management/finalpdf.pdf or screenshots_kevin</t>
+  </si>
+  <si>
+    <t>card.py, carddeck.py, button.py, score.py: Card, CardDeck, ImageButton, Score</t>
+  </si>
+  <si>
+    <t>cardDeck.py, directoryparser.py, menu.py: loadCardImages, compareFrontImage, showCard, loadCards, checkAllFaceUp, retrieveCardImages, getCSVDirectory, openCSV, sortCSV, getTop10Scores, mainMenu, singlePlayerMenu, multiPlayerMenu, highScoreMenu, highScoreDisplayMenu</t>
+  </si>
+  <si>
+    <t>menu.py: testRecursion()</t>
+  </si>
+  <si>
+    <t>button.py, score.py: ImageButton, MultiplayerScore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -494,12 +512,6 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -564,6 +576,12 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -914,579 +932,579 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="9" width="32.28515625" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="10.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="9" width="32.28515625" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13">
+        <v>2</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13">
+        <v>8</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13">
+        <v>4</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13">
+        <v>4</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13">
+        <v>4</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13">
+        <v>8</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="H22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13">
+        <v>8</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15">
-        <v>2</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15">
-        <v>2</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15">
-        <v>2</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15">
-        <v>2</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15">
-        <v>2</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15">
+      <c r="H23" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13">
         <v>8</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15">
-        <v>4</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="F24" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13">
+        <v>8</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15">
-        <v>4</v>
-      </c>
-      <c r="E20" s="24" t="s">
+      <c r="F25" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13">
+        <v>8</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15">
-        <v>4</v>
-      </c>
-      <c r="E21" s="24" t="s">
+      <c r="G26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15">
+      <c r="H26" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13">
         <v>8</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E27" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15">
-        <v>8</v>
-      </c>
-      <c r="E23" s="24" t="s">
+      <c r="G27" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="H27" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15">
-        <v>8</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15">
-        <v>8</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15">
-        <v>8</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15">
-        <v>8</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="27">
+      <c r="C29" s="25">
         <f>SUM(C10:C27)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="25">
         <v>80</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1494,8 +1512,8 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1"/>
-    <hyperlink ref="H7" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1503,126 +1521,126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="69.28515625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="32.28515625" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="10.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="69.28515625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="32.28515625" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4"/>
-      <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30">
+      <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28">
         <v>0.5</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28">
         <v>0.1</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28">
         <v>0.2</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>76</v>
+      <c r="E5" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30">
+      <c r="A6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28">
         <v>0.1</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28">
         <v>0.1</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="B8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="26">
         <f>SUM(C3:C7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <f>SUM(D3:D7)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1634,126 +1652,126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="69.28515625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="32.28515625" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="10.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="69.28515625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="32.28515625" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4"/>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30">
+      <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28">
         <v>0.5</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28">
         <v>0.1</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28">
         <v>0.2</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>92</v>
+      <c r="E5" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30">
+      <c r="A6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28">
         <v>0.1</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28">
         <v>0.1</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="B8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="26">
         <f>SUM(C3:C7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <f>SUM(D3:D7)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1765,126 +1783,126 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="69.28515625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="32.28515625" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="10.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="69.28515625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="32.28515625" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4"/>
-      <c r="B1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30">
+      <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28">
         <v>0.5</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28">
         <v>0.1</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28">
         <v>0.2</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>81</v>
+      <c r="E5" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30">
+      <c r="A6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28">
         <v>0.1</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28">
         <v>0.1</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="B8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="26">
         <f>SUM(C3:C7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <f>SUM(D3:D7)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1896,126 +1914,126 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="69.28515625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="32.28515625" style="3" customWidth="1"/>
-    <col min="10" max="1025" width="10.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="69.28515625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="32.28515625" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4"/>
-      <c r="B1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30">
+      <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28">
         <v>0.5</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28">
         <v>0.1</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28">
         <v>0.2</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>83</v>
+      <c r="E5" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30">
+      <c r="A6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28">
         <v>0.1</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28">
         <v>0.1</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="B8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="26">
         <f>SUM(C3:C7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <f>SUM(D3:D7)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
